--- a/input.xlsx
+++ b/input.xlsx
@@ -21,7 +21,7 @@
     <t>Domain</t>
   </si>
   <si>
-    <t>startupbusiness24.net</t>
+    <t>google.com</t>
   </si>
 </sst>
 </file>
@@ -366,7 +366,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A73"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
